--- a/vsphere/7.0/docs/VMware_Cloud_Foundation_4.x_vSphere_STIG_Readiness_Guide-Updated-031521.xlsx
+++ b/vsphere/7.0/docs/VMware_Cloud_Foundation_4.x_vSphere_STIG_Readiness_Guide-Updated-031521.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw.sharepoint.com/teams/disastigdevelopment/vSphere/vSphere 7.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="834" documentId="8_{AC5250AA-42EE-4638-80AF-61D9AA169EC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1A2527D2-13B4-4B78-B6FF-00087B2DCE65}"/>
+  <xr:revisionPtr revIDLastSave="841" documentId="8_{AC5250AA-42EE-4638-80AF-61D9AA169EC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C78D07EC-B4BD-42B4-B73D-CF7EA8DB5EF7}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12801,7 +12801,7 @@
    &lt;/filter&gt;</t>
   </si>
   <si>
-    <t>!!!WARNING!!! - These deltas have been identified as known to be incompatible with VCF deployments.  There may be other controls that have not been identified, as always take appropriate steps when implementing controls.</t>
+    <t>!!!CAUTION!!! - These deltas have been identified as known to be incompatible with VCF deployments.  There may be other controls that have not been identified, as always take appropriate steps when implementing controls.</t>
   </si>
 </sst>
 </file>
@@ -13282,9 +13282,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13297,6 +13294,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -13306,129 +13306,10 @@
   </cellStyles>
   <dxfs count="151">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
-        <left style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -13436,13 +13317,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -13604,230 +13478,6 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF179BD3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF179BD3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -14347,6 +13997,181 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF179BD3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border outline="0">
         <right style="thin">
           <color auto="1"/>
@@ -15693,6 +15518,181 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF179BD3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -15764,17 +15764,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2777</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>141501</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>27400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02186D36-0AF0-466D-B918-B9DE3D766F23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051E9793-C5C2-4F05-97DA-08F071F9DBC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15791,14 +15791,14 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8270477" cy="11000001"/>
+          <a:ext cx="7086600" cy="9076150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -15815,20 +15815,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>455976</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>172211</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294238</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1668DAA1-A45B-453E-9CFB-7BBAFAB975C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEABBB5-5ABE-45E6-9C8E-310BA117DA7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15844,15 +15844,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20955"/>
-          <a:ext cx="9790476" cy="9152381"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8295238" cy="7838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -15863,79 +15863,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3FC1C3C6-BBD8-4C14-958A-6AE300F62D3C}" name="Table6" displayName="Table6" ref="A1:I79" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3FC1C3C6-BBD8-4C14-958A-6AE300F62D3C}" name="Table6" displayName="Table6" ref="A1:I79" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145">
   <autoFilter ref="A1:I79" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{97747D59-69A4-4B8E-BEC9-3579B84FB0A4}" name="IA Control" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{AB7F0132-5708-4ABB-BB8B-38C087E015E8}" name="CCI" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{742A19AE-FBEE-4822-84C4-84BBD5631DD9}" name="SRGID" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{28D9B792-FB4D-4F65-9B94-2939E9BF0174}" name="ControlID" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{76BF9183-1EC4-4B75-94D5-3345C485D658}" name="Severity" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{5CE3A36A-EED9-4EF5-8D34-F115B0784135}" name="Requirement" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{3785DCC0-2DC0-4B58-BD88-3643D07D1404}" name="Vulnerability Discussion" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{43F0668F-4FAC-4D03-8D4F-24DCAABFD3D8}" name="Check" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{55BC4B75-A4BA-4929-A003-5E19E853B121}" name="Fix" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{97747D59-69A4-4B8E-BEC9-3579B84FB0A4}" name="IA Control" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{AB7F0132-5708-4ABB-BB8B-38C087E015E8}" name="CCI" dataDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{742A19AE-FBEE-4822-84C4-84BBD5631DD9}" name="SRGID" dataDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{28D9B792-FB4D-4F65-9B94-2939E9BF0174}" name="ControlID" dataDxfId="141"/>
+    <tableColumn id="5" xr3:uid="{76BF9183-1EC4-4B75-94D5-3345C485D658}" name="Severity" dataDxfId="140"/>
+    <tableColumn id="6" xr3:uid="{5CE3A36A-EED9-4EF5-8D34-F115B0784135}" name="Requirement" dataDxfId="139"/>
+    <tableColumn id="7" xr3:uid="{3785DCC0-2DC0-4B58-BD88-3643D07D1404}" name="Vulnerability Discussion" dataDxfId="138"/>
+    <tableColumn id="8" xr3:uid="{43F0668F-4FAC-4D03-8D4F-24DCAABFD3D8}" name="Check" dataDxfId="137"/>
+    <tableColumn id="9" xr3:uid="{55BC4B75-A4BA-4929-A003-5E19E853B121}" name="Fix" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{92A7ABC5-44CC-4F5F-8DF3-95CA42B3E180}" name="Table668910111213" displayName="Table668910111213" ref="A1:I32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{92A7ABC5-44CC-4F5F-8DF3-95CA42B3E180}" name="Table668910111213" displayName="Table668910111213" ref="A1:I32" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A1:I32" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2BD8705A-A5FB-4221-9D96-ECFC652503C2}" name="IA Control" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C692B020-1E83-41C9-AA1F-0DB886DC58C9}" name="CCI" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CC64C467-FAA6-4A5A-8FF0-8726CA732DCA}" name="SRGID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2506F9D0-3CEA-4D33-AAF9-FEB5DF87A0F8}" name="ControlID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{CB81E36E-5F29-4A29-85B6-D83C6E34CD8B}" name="Severity" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7A452080-B643-4DD5-8429-AB70763CC9B4}" name="Requirement" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{5E27B68A-80A6-4603-99CE-2AA933A31058}" name="Vulnerability Discussion" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5F2A2899-4DCB-49A6-8BD5-0C434D760E18}" name="Check" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{06E218FE-FE3F-472F-A269-0E629DA44129}" name="Fix" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2BD8705A-A5FB-4221-9D96-ECFC652503C2}" name="IA Control" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{C692B020-1E83-41C9-AA1F-0DB886DC58C9}" name="CCI" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{CC64C467-FAA6-4A5A-8FF0-8726CA732DCA}" name="SRGID" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2506F9D0-3CEA-4D33-AAF9-FEB5DF87A0F8}" name="ControlID" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{CB81E36E-5F29-4A29-85B6-D83C6E34CD8B}" name="Severity" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{7A452080-B643-4DD5-8429-AB70763CC9B4}" name="Requirement" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{5E27B68A-80A6-4603-99CE-2AA933A31058}" name="Vulnerability Discussion" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{5F2A2899-4DCB-49A6-8BD5-0C434D760E18}" name="Check" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{06E218FE-FE3F-472F-A269-0E629DA44129}" name="Fix" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7275AF74-C76B-484D-906D-5FF7D9FB9C11}" name="Table6689101112133" displayName="Table6689101112133" ref="A1:I28" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7275AF74-C76B-484D-906D-5FF7D9FB9C11}" name="Table6689101112133" displayName="Table6689101112133" ref="A1:I28" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A1:I28" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6C6BA367-A359-4048-B8B5-9271BC23C28E}" name="IA Control" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BE72A8D4-8B50-4E43-8DEC-BC642270C7B9}" name="CCI" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{5C97EEB7-CE3D-4472-9AB5-612194D23863}" name="SRGID" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{4AF87559-1A4D-4DB8-9249-4207D68D821A}" name="ControlID" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{7C7B01F3-0184-4BB6-8345-938C27E0CD58}" name="Severity" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{04A992BC-7F83-4894-A797-2C5549F76D5A}" name="Requirement" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{491C5CFC-47F1-40F6-8E87-B2B12985BF02}" name="Vulnerability Discussion" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{1557DF14-EE15-4B65-9666-CB53CDA299DA}" name="Check" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{4056C7E0-BDDE-4838-A8BF-5ACF93143155}" name="Fix" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{6C6BA367-A359-4048-B8B5-9271BC23C28E}" name="IA Control" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{BE72A8D4-8B50-4E43-8DEC-BC642270C7B9}" name="CCI" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5C97EEB7-CE3D-4472-9AB5-612194D23863}" name="SRGID" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{4AF87559-1A4D-4DB8-9249-4207D68D821A}" name="ControlID" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{7C7B01F3-0184-4BB6-8345-938C27E0CD58}" name="Severity" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{04A992BC-7F83-4894-A797-2C5549F76D5A}" name="Requirement" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{491C5CFC-47F1-40F6-8E87-B2B12985BF02}" name="Vulnerability Discussion" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{1557DF14-EE15-4B65-9666-CB53CDA299DA}" name="Check" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{4056C7E0-BDDE-4838-A8BF-5ACF93143155}" name="Fix" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CE9E2ACC-1323-4FFE-9272-DCFA32567AA4}" name="Table668910111213314" displayName="Table668910111213314" ref="A1:I34" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CE9E2ACC-1323-4FFE-9272-DCFA32567AA4}" name="Table668910111213314" displayName="Table668910111213314" ref="A1:I34" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:I34" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C303AE36-C80A-4155-B2B1-65FA85CC5232}" name="IA Control" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{093D74FB-D2A8-4E0B-BDD8-EC918B752B67}" name="CCI" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{4FC5AFC0-0AB3-450B-9EFE-F5A8379D6765}" name="SRGID" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{DFB192F1-BB2F-422E-A673-DFDFF19C1879}" name="ControlID" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{99133562-75D7-468F-88E5-E539092FAE5C}" name="Severity" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{C47A4C8E-FAE0-4ECD-A44A-ED8E8ED3E779}" name="Requirement" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{5B5AE737-A2CF-41EE-AA67-93087E4BE3DD}" name="Vulnerability Discussion" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{18094068-1D14-4F9C-9E79-95E2D2DB99EC}" name="Check" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{C5420489-C101-46A9-A6C3-C446CC83B77E}" name="Fix" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{C303AE36-C80A-4155-B2B1-65FA85CC5232}" name="IA Control" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{093D74FB-D2A8-4E0B-BDD8-EC918B752B67}" name="CCI" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{4FC5AFC0-0AB3-450B-9EFE-F5A8379D6765}" name="SRGID" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DFB192F1-BB2F-422E-A673-DFDFF19C1879}" name="ControlID" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{99133562-75D7-468F-88E5-E539092FAE5C}" name="Severity" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C47A4C8E-FAE0-4ECD-A44A-ED8E8ED3E779}" name="Requirement" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5B5AE737-A2CF-41EE-AA67-93087E4BE3DD}" name="Vulnerability Discussion" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{18094068-1D14-4F9C-9E79-95E2D2DB99EC}" name="Check" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{C5420489-C101-46A9-A6C3-C446CC83B77E}" name="Fix" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{894FBCEE-CF4C-4EC0-8075-5A0D7F1697A6}" name="Table4" displayName="Table4" ref="A2:G15" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{894FBCEE-CF4C-4EC0-8075-5A0D7F1697A6}" name="Table4" displayName="Table4" ref="A2:G15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A2:G15" xr:uid="{977D0146-81FC-4F5D-B788-C7D88B98A984}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{49613D57-8CF8-4787-BF73-3BD183E7942C}" name="IA Control"/>
@@ -15951,143 +15951,143 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21D66DF0-B92B-4DA3-B11A-CF26A122E3D8}" name="Table3" displayName="Table3" ref="A1:I30" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" totalsRowBorderDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{21D66DF0-B92B-4DA3-B11A-CF26A122E3D8}" name="Table3" displayName="Table3" ref="A1:I30" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
   <autoFilter ref="A1:I30" xr:uid="{61585A9A-0B41-4431-8D1F-B6C56D0BAFEE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{522DD309-EAB5-4938-A011-0A889F401099}" name="IA Control" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{65B324D1-B5CC-4439-B425-4B20601E1684}" name="CCI" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{13201D2E-C60B-445E-8EB0-ECA01F62C0A9}" name="SRGID" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{259A2224-EDB8-41BA-B665-64E4685E812C}" name="ControlID" dataDxfId="139"/>
-    <tableColumn id="5" xr3:uid="{870636F9-84B2-4578-8294-13AC9A2A80ED}" name="Severity" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{C79CC85C-2048-4E54-916F-4FF520C87B68}" name="Requirement" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{AAD35542-FDF1-4291-A804-C2BD7619D6BA}" name="Vulnerability Discussion" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{D24A3226-08D0-4D51-ADC6-4853F128FEF0}" name="Check" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{205A49D3-8C32-4227-8B9C-817547FDE16D}" name="Fix" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{522DD309-EAB5-4938-A011-0A889F401099}" name="IA Control" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{65B324D1-B5CC-4439-B425-4B20601E1684}" name="CCI" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{13201D2E-C60B-445E-8EB0-ECA01F62C0A9}" name="SRGID" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{259A2224-EDB8-41BA-B665-64E4685E812C}" name="ControlID" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{870636F9-84B2-4578-8294-13AC9A2A80ED}" name="Severity" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{C79CC85C-2048-4E54-916F-4FF520C87B68}" name="Requirement" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{AAD35542-FDF1-4291-A804-C2BD7619D6BA}" name="Vulnerability Discussion" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{D24A3226-08D0-4D51-ADC6-4853F128FEF0}" name="Check" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{205A49D3-8C32-4227-8B9C-817547FDE16D}" name="Fix" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{357EAE97-2881-4B17-8CCD-DAD74AD95A75}" name="Table66" displayName="Table66" ref="A1:I57" totalsRowShown="0" headerRowDxfId="133" headerRowBorderDxfId="132" tableBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{357EAE97-2881-4B17-8CCD-DAD74AD95A75}" name="Table66" displayName="Table66" ref="A1:I57" totalsRowShown="0" headerRowDxfId="121" headerRowBorderDxfId="120" tableBorderDxfId="119">
   <autoFilter ref="A1:I57" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4149A762-7EF3-44CE-A7D1-8EBBB919F3E4}" name="IA Control" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{CB921C58-0815-4CB5-8A6D-E3A691997228}" name="CCI" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{9F3D88DE-07F9-47E0-9C16-792E085AC598}" name="SRGID" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{21E2FEA2-C344-4E81-89EC-4A55EA7B5686}" name="ControlID" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{EDB1C096-14CB-456D-AA9F-AFE338D67BC3}" name="Severity" dataDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{2FA90222-19F3-4675-90F3-577701E5C563}" name="Requirement" dataDxfId="125"/>
-    <tableColumn id="7" xr3:uid="{3EE16678-913C-43B8-B5D7-C1E7B23700A8}" name="Vulnerability Discussion" dataDxfId="124"/>
-    <tableColumn id="8" xr3:uid="{9A1014ED-59A1-45B0-A564-8866F0554061}" name="Check" dataDxfId="123"/>
-    <tableColumn id="9" xr3:uid="{7FE515F8-F882-4B59-8D71-60DD64245927}" name="Fix" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{4149A762-7EF3-44CE-A7D1-8EBBB919F3E4}" name="IA Control" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{CB921C58-0815-4CB5-8A6D-E3A691997228}" name="CCI" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{9F3D88DE-07F9-47E0-9C16-792E085AC598}" name="SRGID" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{21E2FEA2-C344-4E81-89EC-4A55EA7B5686}" name="ControlID" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{EDB1C096-14CB-456D-AA9F-AFE338D67BC3}" name="Severity" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{2FA90222-19F3-4675-90F3-577701E5C563}" name="Requirement" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{3EE16678-913C-43B8-B5D7-C1E7B23700A8}" name="Vulnerability Discussion" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{9A1014ED-59A1-45B0-A564-8866F0554061}" name="Check" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{7FE515F8-F882-4B59-8D71-60DD64245927}" name="Fix" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C341BAC-7934-4A0E-B9C6-685BD7E41D2D}" name="Table1" displayName="Table1" ref="A1:I118" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C341BAC-7934-4A0E-B9C6-685BD7E41D2D}" name="Table1" displayName="Table1" ref="A1:I118" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{76898993-D500-4B28-B849-2000F6CFB80F}" name="IA Control" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{87452F35-4186-4E8B-A906-5968072FB895}" name="CCI" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{D765A2CF-82FD-4338-8F6E-D1C5B81C5366}" name="SRGID" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{5D7C8032-5E95-4C5F-BC40-6F4EA26DBCEC}" name="ControlID" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{9BE44670-04E8-40EA-82F4-FB3CACCBA31F}" name="Severity" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{61F4E156-7310-4431-91AA-5CDA6EA15288}" name="Requirement" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{421BA3D1-2654-4A3B-847B-80EEF3E9385E}" name="Vulnerability Discussion" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{19D57AEC-7406-459E-A860-22E3E35DF43B}" name="Check" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{EB38F282-0B87-430E-AF9B-C3957FF6FA54}" name="Fix" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{76898993-D500-4B28-B849-2000F6CFB80F}" name="IA Control" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{87452F35-4186-4E8B-A906-5968072FB895}" name="CCI" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{D765A2CF-82FD-4338-8F6E-D1C5B81C5366}" name="SRGID" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{5D7C8032-5E95-4C5F-BC40-6F4EA26DBCEC}" name="ControlID" dataDxfId="104"/>
+    <tableColumn id="10" xr3:uid="{9BE44670-04E8-40EA-82F4-FB3CACCBA31F}" name="Severity" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{61F4E156-7310-4431-91AA-5CDA6EA15288}" name="Requirement" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{421BA3D1-2654-4A3B-847B-80EEF3E9385E}" name="Vulnerability Discussion" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{19D57AEC-7406-459E-A860-22E3E35DF43B}" name="Check" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{EB38F282-0B87-430E-AF9B-C3957FF6FA54}" name="Fix" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{741EC6C9-657D-43B6-BCD3-9D6AC867B270}" name="Table668" displayName="Table668" ref="A1:I34" totalsRowShown="0" headerRowDxfId="110" headerRowBorderDxfId="109" tableBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{741EC6C9-657D-43B6-BCD3-9D6AC867B270}" name="Table668" displayName="Table668" ref="A1:I34" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
   <autoFilter ref="A1:I34" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{85EC4E0D-80FD-4CBE-A204-3ABC6A7942A7}" name="IA Control" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{3DD7FA00-1232-479A-8819-308F7B2A0091}" name="CCI" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{9473B91A-6114-4571-B544-C2D8C858EB2B}" name="SRGID" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{6C369B9B-F0EA-41BA-8B0B-83DD21571FA1}" name="ControlID" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{FFAAC3E9-6B6C-486D-A6D4-E82E0B873117}" name="Severity" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{0C3897E0-85DB-4970-B726-4F5BDC848430}" name="Requirement" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{D16397A5-B20B-43F6-BF4A-E12ADA87FF5D}" name="Vulnerability Discussion" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{EFB41BF8-30AF-4F94-9B41-AFF1002EFE21}" name="Check" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{62721909-58F7-4EC8-948C-D91A68813A12}" name="Fix" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{85EC4E0D-80FD-4CBE-A204-3ABC6A7942A7}" name="IA Control" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{3DD7FA00-1232-479A-8819-308F7B2A0091}" name="CCI" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{9473B91A-6114-4571-B544-C2D8C858EB2B}" name="SRGID" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{6C369B9B-F0EA-41BA-8B0B-83DD21571FA1}" name="ControlID" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{FFAAC3E9-6B6C-486D-A6D4-E82E0B873117}" name="Severity" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{0C3897E0-85DB-4970-B726-4F5BDC848430}" name="Requirement" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{D16397A5-B20B-43F6-BF4A-E12ADA87FF5D}" name="Vulnerability Discussion" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{EFB41BF8-30AF-4F94-9B41-AFF1002EFE21}" name="Check" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{62721909-58F7-4EC8-948C-D91A68813A12}" name="Fix" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B16379B1-9554-41EB-A5FE-2A43A2C44CC6}" name="Table6689" displayName="Table6689" ref="A1:I32" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B16379B1-9554-41EB-A5FE-2A43A2C44CC6}" name="Table6689" displayName="Table6689" ref="A1:I32" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="A1:I32" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4504C4D0-851E-4A43-A85D-6BB6EF8D4F22}" name="IA Control" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{89282392-9B3C-4FD4-A252-36B53413592D}" name="CCI" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{73D6DDD5-049B-4E0F-91CC-8209CC5E9525}" name="SRGID" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{4294F3C7-022D-4906-AA8B-C33FED73D594}" name="ControlID" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{AB707472-F165-4794-8091-334F68C515B5}" name="Severity" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{95CCB4FD-ABBD-447D-9067-543879DF47F3}" name="Requirement" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{B6C75F9B-5A80-47EA-AB50-C62EC26336A3}" name="Vulnerability Discussion" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{555E9CD2-F478-4A78-9BFA-9CF7824635BE}" name="Check" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{38C57393-4A0C-4E73-B52A-3B71B0F565F5}" name="Fix" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{4504C4D0-851E-4A43-A85D-6BB6EF8D4F22}" name="IA Control" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{89282392-9B3C-4FD4-A252-36B53413592D}" name="CCI" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{73D6DDD5-049B-4E0F-91CC-8209CC5E9525}" name="SRGID" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{4294F3C7-022D-4906-AA8B-C33FED73D594}" name="ControlID" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{AB707472-F165-4794-8091-334F68C515B5}" name="Severity" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{95CCB4FD-ABBD-447D-9067-543879DF47F3}" name="Requirement" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{B6C75F9B-5A80-47EA-AB50-C62EC26336A3}" name="Vulnerability Discussion" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{555E9CD2-F478-4A78-9BFA-9CF7824635BE}" name="Check" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{38C57393-4A0C-4E73-B52A-3B71B0F565F5}" name="Fix" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EADE3AAE-47ED-4059-B51C-2A123541A19E}" name="Table668910" displayName="Table668910" ref="A1:I35" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EADE3AAE-47ED-4059-B51C-2A123541A19E}" name="Table668910" displayName="Table668910" ref="A1:I35" totalsRowShown="0" headerRowDxfId="74" headerRowBorderDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="A1:I35" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{D991D8A6-5D40-4A46-AE8F-65DDAFF331A5}" name="IA Control" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{52DB01B0-B785-47C0-BD0B-FC2388F25926}" name="CCI" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{DE1F31D0-18DE-44D1-BC0A-95953C2697C2}" name="SRGID" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{7CEDBC0F-1BD6-45EF-A3A5-2EF1F1AFE59D}" name="ControlID" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{C30B05A9-E2C6-4271-B3F1-92656D2243EF}" name="Severity" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{D1AF9B5E-6EB2-4DA1-90E2-1E02C7A3F4C7}" name="Requirement" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{5BEE23FC-0F7C-4500-B7E1-94D462F57DEF}" name="Vulnerability Discussion" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{1CFC558A-36C0-42C9-9B59-73D58B0352BD}" name="Check" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{C784E117-C971-404D-B0ED-758F3AA07384}" name="Fix" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{D991D8A6-5D40-4A46-AE8F-65DDAFF331A5}" name="IA Control" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{52DB01B0-B785-47C0-BD0B-FC2388F25926}" name="CCI" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{DE1F31D0-18DE-44D1-BC0A-95953C2697C2}" name="SRGID" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{7CEDBC0F-1BD6-45EF-A3A5-2EF1F1AFE59D}" name="ControlID" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{C30B05A9-E2C6-4271-B3F1-92656D2243EF}" name="Severity" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{D1AF9B5E-6EB2-4DA1-90E2-1E02C7A3F4C7}" name="Requirement" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{5BEE23FC-0F7C-4500-B7E1-94D462F57DEF}" name="Vulnerability Discussion" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{1CFC558A-36C0-42C9-9B59-73D58B0352BD}" name="Check" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{C784E117-C971-404D-B0ED-758F3AA07384}" name="Fix" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F93FF37A-6F67-45EF-89FB-85793DECBCA4}" name="Table66891011" displayName="Table66891011" ref="A1:I21" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F93FF37A-6F67-45EF-89FB-85793DECBCA4}" name="Table66891011" displayName="Table66891011" ref="A1:I21" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:I21" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{71A4F564-C2DD-4162-914F-8BF199218263}" name="IA Control" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{2B366FEE-7FFD-498D-B99C-46145E16D8AE}" name="CCI" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D42EAA1D-8C3F-47D7-98B4-1B8664A0C971}" name="SRGID" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{F98E2880-D702-467A-B665-31480F6819F3}" name="ControlID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9472C883-624B-45BB-89AF-7896C2C8CC7F}" name="Severity" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{ED613459-589F-4CE1-9B37-B7D939BA0417}" name="Requirement" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E735ECE8-397D-43C8-960B-A75BAC3F8156}" name="Vulnerability Discussion" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{BBEA7A3B-A152-4633-B10B-1DA983DE0E9F}" name="Check" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{0ED6FABB-60F9-4E91-B8BE-895D50CF47C5}" name="Fix" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{71A4F564-C2DD-4162-914F-8BF199218263}" name="IA Control" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{2B366FEE-7FFD-498D-B99C-46145E16D8AE}" name="CCI" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{D42EAA1D-8C3F-47D7-98B4-1B8664A0C971}" name="SRGID" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{F98E2880-D702-467A-B665-31480F6819F3}" name="ControlID" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{9472C883-624B-45BB-89AF-7896C2C8CC7F}" name="Severity" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{ED613459-589F-4CE1-9B37-B7D939BA0417}" name="Requirement" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{E735ECE8-397D-43C8-960B-A75BAC3F8156}" name="Vulnerability Discussion" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{BBEA7A3B-A152-4633-B10B-1DA983DE0E9F}" name="Check" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{0ED6FABB-60F9-4E91-B8BE-895D50CF47C5}" name="Fix" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD1A80F4-3CAC-4657-BB5F-C1D7C199B9A5}" name="Table6689101112" displayName="Table6689101112" ref="A1:I9" totalsRowShown="0" headerRowDxfId="74" headerRowBorderDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD1A80F4-3CAC-4657-BB5F-C1D7C199B9A5}" name="Table6689101112" displayName="Table6689101112" ref="A1:I9" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A1:I9" xr:uid="{F2F29CD3-7838-4CB8-B796-25B80672C2F1}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AB3F7E36-0ECF-4851-BB16-F53A3256CA50}" name="IA Control" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{D9785167-D918-41CD-A1F2-79FDE5F9EE3C}" name="CCI" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{2BD02870-448E-460A-A364-4DA16CAE9ADF}" name="SRGID" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{48A5A19C-AABB-4E59-96FC-07EC94D81821}" name="ControlID" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{23A8BB2E-3F7E-434C-B1F5-2B5E8599496E}" name="Severity" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{A6B83CCC-C7FB-4747-A7F1-2EEA53108A5C}" name="Requirement" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{7F56B24B-A67A-47F4-8CE1-484C3656A62D}" name="Vulnerability Discussion" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{AB3D947D-4205-4662-B0BE-27FC5E94D999}" name="Check" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{F545F799-3E97-4472-9D6E-475A16F5067A}" name="Fix" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{AB3F7E36-0ECF-4851-BB16-F53A3256CA50}" name="IA Control" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{D9785167-D918-41CD-A1F2-79FDE5F9EE3C}" name="CCI" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{2BD02870-448E-460A-A364-4DA16CAE9ADF}" name="SRGID" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{48A5A19C-AABB-4E59-96FC-07EC94D81821}" name="ControlID" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{23A8BB2E-3F7E-434C-B1F5-2B5E8599496E}" name="Severity" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{A6B83CCC-C7FB-4747-A7F1-2EEA53108A5C}" name="Requirement" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{7F56B24B-A67A-47F4-8CE1-484C3656A62D}" name="Vulnerability Discussion" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{AB3D947D-4205-4662-B0BE-27FC5E94D999}" name="Check" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{F545F799-3E97-4472-9D6E-475A16F5067A}" name="Fix" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="VMware Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16393,7 +16393,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18374,7 +18374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -20196,8 +20196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F4A07D-C688-4927-8653-426C98E541BF}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20211,15 +20211,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>2705</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
@@ -20263,7 +20263,7 @@
       <c r="F3" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="62" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -20286,7 +20286,7 @@
       <c r="F4" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -20309,7 +20309,7 @@
       <c r="F5" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -20568,8 +20568,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20586,8 +20586,8 @@
   </sheetPr>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -22985,7 +22985,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>240</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="360" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>240</v>
       </c>
@@ -23656,28 +23656,28 @@
       <c r="A26" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="64" t="s">
         <v>2516</v>
       </c>
-      <c r="E26" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="63" t="s">
+      <c r="E26" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="62" t="s">
         <v>2517</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="62" t="s">
         <v>2518</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="62" t="s">
         <v>2575</v>
       </c>
-      <c r="I26" s="66" t="s">
+      <c r="I26" s="65" t="s">
         <v>2576</v>
       </c>
     </row>
@@ -23685,28 +23685,28 @@
       <c r="A27" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="64" t="s">
         <v>2519</v>
       </c>
-      <c r="E27" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="63" t="s">
+      <c r="E27" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="62" t="s">
         <v>2520</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="62" t="s">
         <v>2521</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="62" t="s">
         <v>2577</v>
       </c>
-      <c r="I27" s="66" t="s">
+      <c r="I27" s="65" t="s">
         <v>2578</v>
       </c>
     </row>
@@ -23714,28 +23714,28 @@
       <c r="A28" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="64" t="s">
         <v>2522</v>
       </c>
-      <c r="E28" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="63" t="s">
+      <c r="E28" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="62" t="s">
         <v>2523</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="62" t="s">
         <v>2524</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>2579</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="I28" s="65" t="s">
         <v>2580</v>
       </c>
     </row>
@@ -23743,28 +23743,28 @@
       <c r="A29" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="64" t="s">
         <v>2525</v>
       </c>
-      <c r="E29" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="63" t="s">
+      <c r="E29" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="62" t="s">
         <v>2526</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="62" t="s">
         <v>2527</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>2581</v>
       </c>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="65" t="s">
         <v>2582</v>
       </c>
     </row>
@@ -23772,28 +23772,28 @@
       <c r="A30" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="63" t="s">
         <v>760</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="64" t="s">
         <v>2528</v>
       </c>
-      <c r="E30" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="63" t="s">
+      <c r="E30" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>2529</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="62" t="s">
         <v>2530</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="62" t="s">
         <v>2583</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="65" t="s">
         <v>2584</v>
       </c>
     </row>
@@ -23817,7 +23817,7 @@
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -25507,7 +25507,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
@@ -26279,7 +26279,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>101</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="360" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>154</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>201</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>201</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>240</v>
       </c>
